--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -1258,7 +1258,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J16" s="8" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -1358,7 +1358,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J18" s="8" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H14" s="18" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="H26" s="18" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="H28" s="18" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="I28" s="16" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H37" s="18" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -2030,7 +2030,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I30" s="12" t="inlineStr"/>
+      <c r="I30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J30" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -859,7 +859,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J6" s="18" t="inlineStr"/>
+      <c r="J6" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="1">
       <c r="A7" s="12" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:J37"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B9" sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-2 (2 Agustus 2021 - 8 Agustus 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:J37"/>
+      <selection activeCell="D6" sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
